--- a/Reports/SKI_BTSV.xlsx
+++ b/Reports/SKI_BTSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B94D19D-B9DD-4610-A47C-09F33998B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74425565-B9DD-4981-BB3B-E45F9F09AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="14" r:id="rId1"/>
@@ -597,255 +597,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,32 +613,281 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7477C688-F690-4F53-A182-C41AD585F5D0}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,106 +1248,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="str">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="35" t="str">
+      <c r="M1" s="112"/>
+      <c r="N1" s="111" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="J4" s="37" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="J4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39"/>
-      <c r="J5" s="41" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="115"/>
+      <c r="J5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="44"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39"/>
-      <c r="J6" s="41" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="115"/>
+      <c r="J6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="100"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39"/>
-      <c r="J7" s="41" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="115"/>
+      <c r="J7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -1356,26 +1356,26 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="44"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
@@ -1384,17 +1384,17 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42" t="s">
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
@@ -1403,17 +1403,17 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49" t="s">
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="103"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
@@ -1422,15 +1422,15 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="60"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
@@ -1439,17 +1439,17 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="58" t="s">
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="60"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -1458,15 +1458,15 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
@@ -1475,15 +1475,15 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
@@ -1492,13 +1492,13 @@
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
@@ -1507,13 +1507,13 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
@@ -1522,13 +1522,13 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
@@ -1539,408 +1539,408 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="105"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="106"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="106"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="71"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
       <c r="P28" s="14"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="71"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
       <c r="P29" s="14"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="71"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="82"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
     </row>
     <row r="33" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="82"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="37"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
     </row>
     <row r="34" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="71"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="71"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="112"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
       <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
     </row>
     <row r="40" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
@@ -1994,291 +1994,291 @@
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="24"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="46"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="24"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="46"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="24"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="24"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="24"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="46"/>
       <c r="P48" s="16"/>
     </row>
     <row r="49" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="24"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="46"/>
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="46"/>
       <c r="P50" s="16"/>
     </row>
     <row r="51" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="86"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="24"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="46"/>
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="24"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="46"/>
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="24"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="46"/>
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="24"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="46"/>
       <c r="P54" s="16"/>
     </row>
     <row r="55" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="24"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="46"/>
       <c r="P55" s="16"/>
     </row>
     <row r="56" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="24"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="46"/>
       <c r="P56" s="16"/>
     </row>
     <row r="57" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="24"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="46"/>
       <c r="P57" s="16"/>
     </row>
     <row r="58" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="24"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="46"/>
       <c r="P58" s="16"/>
     </row>
     <row r="59" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="24"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="46"/>
       <c r="P59" s="16"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2299,14 +2299,14 @@
       <c r="P60" s="16"/>
     </row>
     <row r="61" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="113"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="28" t="s">
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="30"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="106"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -2318,32 +2318,32 @@
       <c r="P61" s="16"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="115"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="109"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="K62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="72"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="66"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="K63" s="6"/>
@@ -2354,14 +2354,14 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="27"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="66"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="K64" s="6"/>
@@ -2372,14 +2372,14 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="27"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="66"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="K65" s="6"/>
@@ -2391,14 +2391,14 @@
     </row>
     <row r="66" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="66"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="4"/>
@@ -2411,14 +2411,14 @@
     </row>
     <row r="67" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="66"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="4"/>
@@ -2431,14 +2431,14 @@
     </row>
     <row r="68" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="66"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="4"/>
@@ -2469,61 +2469,61 @@
     </row>
     <row r="70" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="96" t="s">
+      <c r="B70" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="97"/>
-      <c r="D70" s="98"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="98"/>
-      <c r="I70" s="98"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="95"/>
-      <c r="L70" s="100"/>
-      <c r="M70" s="100"/>
-      <c r="N70" s="100"/>
-      <c r="O70" s="100"/>
-      <c r="P70" s="100"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
     </row>
     <row r="71" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="98"/>
-      <c r="I71" s="98"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="95"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="55"/>
+      <c r="P71" s="56"/>
     </row>
     <row r="72" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="95"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="56"/>
     </row>
     <row r="73" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2563,14 +2563,14 @@
     </row>
     <row r="75" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="89" t="s">
+      <c r="B75" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -2584,12 +2584,69 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="95">
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:O35"/>
-    <mergeCell ref="H32:O33"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="H54:O55"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E61:G62"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="B56:G57"/>
+    <mergeCell ref="H56:O57"/>
+    <mergeCell ref="B58:G59"/>
+    <mergeCell ref="H58:O59"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A20:Q22"/>
+    <mergeCell ref="H30:O31"/>
+    <mergeCell ref="H28:O29"/>
+    <mergeCell ref="H26:O27"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="H24:O25"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="Q30:U31"/>
+    <mergeCell ref="Q32:U33"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="Q26:U27"/>
+    <mergeCell ref="R28:U29"/>
+    <mergeCell ref="B32:G33"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="H50:O51"/>
+    <mergeCell ref="A38:P40"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="H44:O45"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B46:G47"/>
     <mergeCell ref="H46:O47"/>
@@ -2606,6 +2663,12 @@
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="D71:J71"/>
     <mergeCell ref="K71:P71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:O35"/>
+    <mergeCell ref="H32:O33"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="H54:O55"/>
     <mergeCell ref="B50:G51"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
@@ -2616,71 +2679,8 @@
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="H50:O51"/>
-    <mergeCell ref="A38:P40"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="Q30:U31"/>
-    <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="Q26:U27"/>
-    <mergeCell ref="R28:U29"/>
-    <mergeCell ref="B32:G33"/>
-    <mergeCell ref="A20:Q22"/>
-    <mergeCell ref="H30:O31"/>
-    <mergeCell ref="H28:O29"/>
-    <mergeCell ref="H26:O27"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="H24:O25"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="B56:G57"/>
-    <mergeCell ref="H56:O57"/>
-    <mergeCell ref="B58:G59"/>
-    <mergeCell ref="H58:O59"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E61:G62"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44:O55" xr:uid="{F46B5ECD-A53B-4ED8-B0C8-50E3F3F56653}">
       <formula1>"допустимое отклонение значения от зоны уставки соответствует, допустимое отклонение значения от зоны уставки не соответствует"</formula1>
     </dataValidation>

--- a/Reports/SKI_BTSV.xlsx
+++ b/Reports/SKI_BTSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74425565-B9DD-4981-BB3B-E45F9F09AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13434C6B-EA35-46E8-8D9B-2326E30292AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="14" r:id="rId1"/>
@@ -613,25 +613,133 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,52 +751,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,170 +853,41 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7477C688-F690-4F53-A182-C41AD585F5D0}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:Q22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,106 +1248,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111" t="str">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="25" t="str">
         <f>IF(M5="","",M5)</f>
         <v/>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111" t="str">
+      <c r="M1" s="44"/>
+      <c r="N1" s="25" t="str">
         <f>IF(D7="","",D7)</f>
         <v/>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="J4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="115"/>
-      <c r="J5" s="97" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="J5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="115"/>
-      <c r="J6" s="97" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="J6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="98" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="100"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="115"/>
-      <c r="J7" s="97" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="J7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="98" t="s">
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
@@ -1356,26 +1356,26 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="J8" s="114" t="s">
+      <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="100"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
@@ -1384,17 +1384,17 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="98" t="s">
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="100"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
@@ -1403,17 +1403,17 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="101" t="s">
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="103"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
@@ -1422,15 +1422,15 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="J12" s="88" t="s">
+      <c r="J12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
@@ -1439,17 +1439,17 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="95"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="91" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
@@ -1458,15 +1458,15 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
@@ -1475,15 +1475,15 @@
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
@@ -1539,408 +1539,408 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
       <c r="P24" s="23"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
       <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="46"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="56"/>
       <c r="P26" s="24"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
     </row>
     <row r="27" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="46"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="15"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
     </row>
     <row r="28" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="34"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
       <c r="P28" s="14"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
     </row>
     <row r="29" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="34"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
       <c r="P29" s="14"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
     </row>
     <row r="30" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="70"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
     </row>
     <row r="31" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="34"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="70"/>
       <c r="P31" s="14"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
     </row>
     <row r="32" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
     </row>
     <row r="33" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="37"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="114"/>
       <c r="P33" s="13"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
     </row>
     <row r="34" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="34"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="70"/>
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="34"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="70"/>
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
       <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
     </row>
     <row r="40" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
@@ -1994,291 +1994,291 @@
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="46"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="46"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="56"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="46"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="56"/>
       <c r="P46" s="16"/>
     </row>
     <row r="47" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="56"/>
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="1:21" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="56"/>
       <c r="P48" s="16"/>
     </row>
     <row r="49" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="46"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56"/>
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="46"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="56"/>
       <c r="P50" s="16"/>
     </row>
     <row r="51" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="46"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="56"/>
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="46"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="56"/>
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="46"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="56"/>
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="46"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="56"/>
       <c r="P54" s="16"/>
     </row>
     <row r="55" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="46"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="56"/>
       <c r="P55" s="16"/>
     </row>
     <row r="56" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="46"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="56"/>
       <c r="P56" s="16"/>
     </row>
     <row r="57" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="46"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="56"/>
       <c r="P57" s="16"/>
     </row>
     <row r="58" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="46"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="56"/>
       <c r="P58" s="16"/>
     </row>
     <row r="59" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="46"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="56"/>
       <c r="P59" s="16"/>
     </row>
     <row r="60" spans="2:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2299,14 +2299,14 @@
       <c r="P60" s="16"/>
     </row>
     <row r="61" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="104" t="s">
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="106"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
@@ -2318,32 +2318,32 @@
       <c r="P61" s="16"/>
     </row>
     <row r="62" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="108"/>
-      <c r="G62" s="109"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="K62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
+      <c r="L62" s="115"/>
+      <c r="M62" s="115"/>
+      <c r="N62" s="115"/>
+      <c r="O62" s="115"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="66"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="K63" s="6"/>
@@ -2354,14 +2354,14 @@
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="K64" s="6"/>
@@ -2372,14 +2372,14 @@
       <c r="P64" s="2"/>
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="66"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="K65" s="6"/>
@@ -2391,14 +2391,14 @@
     </row>
     <row r="66" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="66"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="4"/>
@@ -2411,14 +2411,14 @@
     </row>
     <row r="67" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="66"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="4"/>
@@ -2431,14 +2431,14 @@
     </row>
     <row r="68" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="66"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="4"/>
@@ -2469,61 +2469,61 @@
     </row>
     <row r="70" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="57" t="s">
+      <c r="B70" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="56"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="104"/>
+      <c r="P70" s="104"/>
     </row>
     <row r="71" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="56"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="98"/>
+      <c r="M71" s="98"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="98"/>
+      <c r="P71" s="99"/>
     </row>
     <row r="72" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="56"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="99"/>
     </row>
     <row r="73" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2563,14 +2563,14 @@
     </row>
     <row r="75" spans="1:16" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="87"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -2584,19 +2584,72 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="95">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B34:G35"/>
+    <mergeCell ref="H34:O35"/>
+    <mergeCell ref="H32:O33"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="H54:O55"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B46:G47"/>
+    <mergeCell ref="H46:O47"/>
+    <mergeCell ref="B48:G49"/>
+    <mergeCell ref="H48:O49"/>
+    <mergeCell ref="B52:G53"/>
+    <mergeCell ref="H52:O53"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="K72:P72"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="K70:P70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="K71:P71"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="H50:O51"/>
+    <mergeCell ref="A38:P40"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="H44:O45"/>
+    <mergeCell ref="Q32:U33"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="Q26:U27"/>
+    <mergeCell ref="R28:U29"/>
+    <mergeCell ref="B32:G33"/>
+    <mergeCell ref="A20:Q22"/>
+    <mergeCell ref="H30:O31"/>
+    <mergeCell ref="H28:O29"/>
+    <mergeCell ref="H26:O27"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B28:G29"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="H24:O25"/>
+    <mergeCell ref="B24:G25"/>
+    <mergeCell ref="Q30:U31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:P14"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="E61:G62"/>
     <mergeCell ref="B1:H1"/>
@@ -2613,74 +2666,21 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A20:Q22"/>
-    <mergeCell ref="H30:O31"/>
-    <mergeCell ref="H28:O29"/>
-    <mergeCell ref="H26:O27"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B28:G29"/>
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="H24:O25"/>
-    <mergeCell ref="B24:G25"/>
-    <mergeCell ref="Q30:U31"/>
-    <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="Q26:U27"/>
-    <mergeCell ref="R28:U29"/>
-    <mergeCell ref="B32:G33"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="H50:O51"/>
-    <mergeCell ref="A38:P40"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B46:G47"/>
-    <mergeCell ref="H46:O47"/>
-    <mergeCell ref="B48:G49"/>
-    <mergeCell ref="H48:O49"/>
-    <mergeCell ref="B52:G53"/>
-    <mergeCell ref="H52:O53"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="K72:P72"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="K70:P70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="K71:P71"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B34:G35"/>
-    <mergeCell ref="H34:O35"/>
-    <mergeCell ref="H32:O33"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="H54:O55"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H44:O55" xr:uid="{F46B5ECD-A53B-4ED8-B0C8-50E3F3F56653}">
       <formula1>"допустимое отклонение значения от зоны уставки соответствует, допустимое отклонение значения от зоны уставки не соответствует"</formula1>
     </dataValidation>
